--- a/27th May Batch/New Microsoft Excel Worksheet.xlsx
+++ b/27th May Batch/New Microsoft Excel Worksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DS WorkFlow\Data Is Good Class Files\Batches\2023-Classes\27th May Batch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BDF269B-EC0C-41D4-A1DA-22CB100FBA81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40B0ACA9-CEE1-4412-8D71-2B7559098F28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,33 +25,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
-  <si>
-    <t>h</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>r</t>
-  </si>
-  <si>
-    <t>y</t>
-  </si>
-  <si>
-    <t>apr - 58962</t>
-  </si>
-  <si>
-    <t>apr - 58966</t>
-  </si>
-  <si>
-    <t>gfh - 58963</t>
-  </si>
-  <si>
-    <t>xpr - 58964</t>
-  </si>
-  <si>
-    <t>upr - 58965</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+  <si>
+    <t>harry</t>
+  </si>
+  <si>
+    <t>hagrid</t>
+  </si>
+  <si>
+    <t>luna</t>
+  </si>
+  <si>
+    <t>peter</t>
+  </si>
+  <si>
+    <t>emma</t>
+  </si>
+  <si>
+    <t>rupert</t>
+  </si>
+  <si>
+    <t>paul</t>
+  </si>
+  <si>
+    <t>newman</t>
+  </si>
+  <si>
+    <t>harish</t>
+  </si>
+  <si>
+    <t>parker</t>
+  </si>
+  <si>
+    <t>tony</t>
   </si>
 </sst>
 </file>
@@ -378,10 +384,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:F11"/>
+  <dimension ref="B1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="154" zoomScaleNormal="154" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -389,24 +395,42 @@
     <col min="3" max="3" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B1" s="1">
+    <row r="1" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B1">
+        <v>-11</v>
+      </c>
+      <c r="C1">
+        <v>-10</v>
+      </c>
+      <c r="D1">
+        <v>-9</v>
+      </c>
+      <c r="E1">
+        <v>-8</v>
+      </c>
+      <c r="F1">
+        <v>-7</v>
+      </c>
+      <c r="G1">
+        <v>-6</v>
+      </c>
+      <c r="H1" s="1">
         <v>-5</v>
       </c>
-      <c r="C1" s="1">
+      <c r="I1" s="1">
         <v>-4</v>
       </c>
-      <c r="D1" s="1">
+      <c r="J1" s="1">
         <v>-3</v>
       </c>
-      <c r="E1" s="1">
+      <c r="K1" s="1">
         <v>-2</v>
       </c>
-      <c r="F1" s="1">
+      <c r="L1" s="1">
         <v>-1</v>
       </c>
     </row>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B2" s="1">
         <v>0</v>
       </c>
@@ -422,8 +446,26 @@
       <c r="F2" s="1">
         <v>4</v>
       </c>
+      <c r="G2" s="1">
+        <v>5</v>
+      </c>
+      <c r="H2" s="1">
+        <v>6</v>
+      </c>
+      <c r="I2" s="1">
+        <v>7</v>
+      </c>
+      <c r="J2" s="1">
+        <v>8</v>
+      </c>
+      <c r="K2" s="1">
+        <v>9</v>
+      </c>
+      <c r="L2" s="1">
+        <v>10</v>
+      </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -434,35 +476,28 @@
         <v>2</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C8" t="s">
+      <c r="G3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C9" t="s">
+      <c r="I3" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C10" t="s">
+      <c r="J3" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C11" t="s">
-        <v>5</v>
+      <c r="K3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/27th May Batch/New Microsoft Excel Worksheet.xlsx
+++ b/27th May Batch/New Microsoft Excel Worksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DS WorkFlow\Data Is Good Class Files\Batches\2023-Classes\27th May Batch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40B0ACA9-CEE1-4412-8D71-2B7559098F28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8659A02E-18A6-456B-92BA-54E0C82FD32A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
   <si>
     <t>harry</t>
   </si>
@@ -58,6 +58,78 @@
   </si>
   <si>
     <t>tony</t>
+  </si>
+  <si>
+    <t>akash</t>
+  </si>
+  <si>
+    <t>praveen</t>
+  </si>
+  <si>
+    <t>data analyst</t>
+  </si>
+  <si>
+    <t>tester</t>
+  </si>
+  <si>
+    <t>ml ops</t>
+  </si>
+  <si>
+    <t>job</t>
+  </si>
+  <si>
+    <t>salary</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>sw eng</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Dictionary 2</t>
+  </si>
+  <si>
+    <t>Dictionary 1 - D3</t>
+  </si>
+  <si>
+    <t>Key</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>haarry</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pop method on age </t>
+  </si>
+  <si>
+    <t xml:space="preserve">removed age </t>
+  </si>
+  <si>
+    <t>del method on salary</t>
+  </si>
+  <si>
+    <t>for loop - add 1 to all elements</t>
+  </si>
+  <si>
+    <t>1+1 = 2</t>
+  </si>
+  <si>
+    <t>2+1 = 3</t>
+  </si>
+  <si>
+    <t>3+1 = 4</t>
+  </si>
+  <si>
+    <t>…. 8+1 = 9</t>
   </si>
 </sst>
 </file>
@@ -79,15 +151,51 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -95,13 +203,123 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -119,6 +337,170 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>562840</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>148442</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>216477</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>142257</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Arrow Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D422FF2A-4844-534F-67DE-54050BDF5F79}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5282045" y="2480211"/>
+          <a:ext cx="1490601" cy="1608117"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>531915</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>333994</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>148441</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Arrow Connector 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E9010CD-3933-186A-F402-D8C01B039DCA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5251120" y="6098474"/>
+          <a:ext cx="1026721" cy="865909"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>562841</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>123701</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>389659</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>142257</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Straight Arrow Connector 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34E01D6F-42CA-63E0-B5BD-106C7AF6BBC6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5894367" y="6042808"/>
+          <a:ext cx="439139" cy="1094757"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -384,15 +766,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:L3"/>
+  <dimension ref="B1:O44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="154" zoomScaleNormal="154" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="154" zoomScaleNormal="154" workbookViewId="0">
+      <selection activeCell="K39" sqref="K39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="10" max="10" width="13.08984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:12" x14ac:dyDescent="0.35">
@@ -500,8 +883,223 @@
         <v>10</v>
       </c>
     </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B11" s="16"/>
+      <c r="C11" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B12" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="11"/>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B13" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="13"/>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B14" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="15"/>
+      <c r="J14" t="s">
+        <v>28</v>
+      </c>
+      <c r="K14">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B15" s="16"/>
+      <c r="C15" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="7"/>
+      <c r="E15" s="8"/>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B16" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B17" s="16"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="5">
+        <v>180000</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B18" s="16"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="G19" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="G20" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="G23" t="s">
+        <v>24</v>
+      </c>
+      <c r="H23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="G24" t="s">
+        <v>25</v>
+      </c>
+      <c r="H24">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="3:15" x14ac:dyDescent="0.35">
+      <c r="H34">
+        <v>1</v>
+      </c>
+      <c r="I34">
+        <v>2</v>
+      </c>
+      <c r="J34">
+        <v>3</v>
+      </c>
+      <c r="K34">
+        <v>4</v>
+      </c>
+      <c r="L34">
+        <v>5</v>
+      </c>
+      <c r="M34">
+        <v>6</v>
+      </c>
+      <c r="N34">
+        <v>7</v>
+      </c>
+      <c r="O34">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="3:15" x14ac:dyDescent="0.35">
+      <c r="C35" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="3:15" x14ac:dyDescent="0.35">
+      <c r="G37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="3:15" x14ac:dyDescent="0.35">
+      <c r="G38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="3:15" x14ac:dyDescent="0.35">
+      <c r="G39">
+        <v>4</v>
+      </c>
+      <c r="J39" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="40" spans="3:15" x14ac:dyDescent="0.35">
+      <c r="G40">
+        <v>5</v>
+      </c>
+      <c r="J40" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="41" spans="3:15" x14ac:dyDescent="0.35">
+      <c r="G41">
+        <v>6</v>
+      </c>
+      <c r="J41" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="42" spans="3:15" x14ac:dyDescent="0.35">
+      <c r="G42">
+        <v>7</v>
+      </c>
+      <c r="J42" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="43" spans="3:15" x14ac:dyDescent="0.35">
+      <c r="G43">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="3:15" x14ac:dyDescent="0.35">
+      <c r="G44">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="G19:I19"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/27th May Batch/New Microsoft Excel Worksheet.xlsx
+++ b/27th May Batch/New Microsoft Excel Worksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DS WorkFlow\Data Is Good Class Files\Batches\2023-Classes\27th May Batch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8659A02E-18A6-456B-92BA-54E0C82FD32A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E00C669-D27C-47DA-A012-E73740308E43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="61">
   <si>
     <t>harry</t>
   </si>
@@ -130,6 +130,84 @@
   </si>
   <si>
     <t>…. 8+1 = 9</t>
+  </si>
+  <si>
+    <t>lst1</t>
+  </si>
+  <si>
+    <t>ron</t>
+  </si>
+  <si>
+    <t>union</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>for i in lst1:</t>
+  </si>
+  <si>
+    <t>each item length</t>
+  </si>
+  <si>
+    <t>1st loop</t>
+  </si>
+  <si>
+    <t>2nd loop</t>
+  </si>
+  <si>
+    <t>3rd loop</t>
+  </si>
+  <si>
+    <t>4th loop</t>
+  </si>
+  <si>
+    <t>for i in range(len(lst1)):</t>
+  </si>
+  <si>
+    <t>lst1 length - len(lst1)</t>
+  </si>
+  <si>
+    <t>5th loop</t>
+  </si>
+  <si>
+    <t>if block - length of item &lt;4</t>
+  </si>
+  <si>
+    <t>for i in range 0,10</t>
+  </si>
+  <si>
+    <t>6th loop</t>
+  </si>
+  <si>
+    <t>7th loop</t>
+  </si>
+  <si>
+    <t>8th loop</t>
+  </si>
+  <si>
+    <t>9th loop</t>
+  </si>
+  <si>
+    <t>10th loop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">break if i ==5 </t>
+  </si>
+  <si>
+    <t>don’t break</t>
+  </si>
+  <si>
+    <t xml:space="preserve">break </t>
+  </si>
+  <si>
+    <t>continue if i == 5</t>
+  </si>
+  <si>
+    <t>loop runs</t>
+  </si>
+  <si>
+    <t>skip this loop</t>
   </si>
 </sst>
 </file>
@@ -151,7 +229,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -191,6 +269,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -268,7 +352,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -285,6 +369,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -294,7 +385,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -315,13 +406,17 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -475,6 +570,271 @@
         <a:xfrm>
           <a:off x="5894367" y="6042808"/>
           <a:ext cx="439139" cy="1094757"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>113109</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>577453</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>89297</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Arrow Connector 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9010EB08-589D-8CD2-9D7B-6121552DCFED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3327797" y="8864203"/>
+          <a:ext cx="2482453" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>363140</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>119062</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>125016</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Straight Arrow Connector 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83FEECF4-2FF1-9C9F-763D-20F9F4BF9E78}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3774281" y="8917781"/>
+          <a:ext cx="2184797" cy="315516"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>309563</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>160734</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>166688</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Straight Arrow Connector 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D4A2A-5C05-A24F-1F6A-C7F2307FC194}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4327922" y="8911828"/>
+          <a:ext cx="1845469" cy="363141"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>422672</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>154781</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>77391</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="Straight Arrow Connector 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76021E2F-5F1E-4D08-EFD8-63A26A953460}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5048250" y="8905875"/>
+          <a:ext cx="1029891" cy="279797"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>255984</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>23812</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>77390</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D789B275-8495-430A-85E8-01E0F692007B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="3714750" y="9536906"/>
+          <a:ext cx="2196703" cy="184547"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -766,16 +1126,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:O44"/>
+  <dimension ref="B1:O74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="154" zoomScaleNormal="154" workbookViewId="0">
-      <selection activeCell="K39" sqref="K39"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D79" sqref="D79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="10" max="10" width="13.08984375" customWidth="1"/>
+    <col min="3" max="3" width="5.81640625" customWidth="1"/>
+    <col min="4" max="4" width="17.6328125" customWidth="1"/>
+    <col min="7" max="7" width="16.08984375" customWidth="1"/>
+    <col min="8" max="8" width="14.08984375" customWidth="1"/>
+    <col min="10" max="10" width="26.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:12" x14ac:dyDescent="0.35">
@@ -884,48 +1247,48 @@
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B11" s="16"/>
-      <c r="C11" s="17" t="s">
+      <c r="B11" s="6"/>
+      <c r="C11" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="6" t="s">
         <v>23</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="11"/>
+      <c r="E12" s="14"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="6" t="s">
         <v>23</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="13"/>
+      <c r="E13" s="16"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="6" t="s">
         <v>23</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="D14" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="15"/>
+      <c r="E14" s="18"/>
       <c r="J14" t="s">
         <v>28</v>
       </c>
@@ -934,18 +1297,18 @@
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B15" s="16"/>
-      <c r="C15" s="6" t="s">
+      <c r="B15" s="6"/>
+      <c r="C15" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="7"/>
-      <c r="E15" s="8"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="11"/>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D16" s="5" t="s">
@@ -956,7 +1319,7 @@
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B17" s="16"/>
+      <c r="B17" s="6"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5" t="s">
         <v>17</v>
@@ -966,7 +1329,7 @@
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B18" s="16"/>
+      <c r="B18" s="6"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5" t="s">
         <v>18</v>
@@ -976,18 +1339,18 @@
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="G19" s="9" t="s">
+      <c r="G19" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="G20" s="9" t="s">
+      <c r="G20" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.35">
       <c r="G23" t="s">
@@ -1088,8 +1451,287 @@
         <v>9</v>
       </c>
     </row>
+    <row r="50" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="J50" t="s">
+        <v>39</v>
+      </c>
+      <c r="K50" t="s">
+        <v>41</v>
+      </c>
+      <c r="L50" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="D51" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="E51" s="19">
+        <v>0</v>
+      </c>
+      <c r="F51" s="19">
+        <v>1</v>
+      </c>
+      <c r="G51" s="19">
+        <v>2</v>
+      </c>
+      <c r="H51" s="19">
+        <v>3</v>
+      </c>
+      <c r="K51" t="s">
+        <v>42</v>
+      </c>
+      <c r="L51" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="52" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="D52" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="E52" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F52" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="G52" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="H52" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="K52" t="s">
+        <v>43</v>
+      </c>
+      <c r="L52" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="D53" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="E53" s="19">
+        <v>5</v>
+      </c>
+      <c r="F53" s="19">
+        <v>3</v>
+      </c>
+      <c r="G53" s="19">
+        <v>5</v>
+      </c>
+      <c r="H53" s="19">
+        <v>5</v>
+      </c>
+      <c r="K53" t="s">
+        <v>44</v>
+      </c>
+      <c r="L53" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="54" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="D54" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="E54" s="21">
+        <v>4</v>
+      </c>
+      <c r="F54" s="21"/>
+      <c r="G54" s="21"/>
+      <c r="H54" s="21"/>
+    </row>
+    <row r="55" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="J55" t="s">
+        <v>45</v>
+      </c>
+      <c r="K55" t="s">
+        <v>41</v>
+      </c>
+      <c r="L55" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="K56" t="s">
+        <v>42</v>
+      </c>
+      <c r="L56" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="K57" t="s">
+        <v>43</v>
+      </c>
+      <c r="L57" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="K58" t="s">
+        <v>44</v>
+      </c>
+      <c r="L58" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="J60" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="61" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="K61" t="s">
+        <v>42</v>
+      </c>
+      <c r="L61" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="D64" t="s">
+        <v>49</v>
+      </c>
+      <c r="G64" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="H64" s="23" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="65" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="E65" t="s">
+        <v>41</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65" t="s">
+        <v>56</v>
+      </c>
+      <c r="H65" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="66" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="E66" t="s">
+        <v>42</v>
+      </c>
+      <c r="F66">
+        <v>1</v>
+      </c>
+      <c r="G66" t="s">
+        <v>56</v>
+      </c>
+      <c r="H66" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="67" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="E67" t="s">
+        <v>43</v>
+      </c>
+      <c r="F67">
+        <v>2</v>
+      </c>
+      <c r="G67" t="s">
+        <v>56</v>
+      </c>
+      <c r="H67" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="68" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68">
+        <v>3</v>
+      </c>
+      <c r="G68" t="s">
+        <v>56</v>
+      </c>
+      <c r="H68" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="69" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="E69" t="s">
+        <v>47</v>
+      </c>
+      <c r="F69">
+        <v>4</v>
+      </c>
+      <c r="G69" t="s">
+        <v>56</v>
+      </c>
+      <c r="H69" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="70" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="E70" t="s">
+        <v>50</v>
+      </c>
+      <c r="F70" s="22">
+        <v>5</v>
+      </c>
+      <c r="G70" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="H70" s="23" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="71" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="E71" t="s">
+        <v>51</v>
+      </c>
+      <c r="F71">
+        <v>6</v>
+      </c>
+      <c r="H71" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="72" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="E72" t="s">
+        <v>52</v>
+      </c>
+      <c r="F72">
+        <v>7</v>
+      </c>
+      <c r="H72" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="73" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="E73" t="s">
+        <v>53</v>
+      </c>
+      <c r="F73">
+        <v>8</v>
+      </c>
+      <c r="H73" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="74" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="E74" t="s">
+        <v>54</v>
+      </c>
+      <c r="F74">
+        <v>9</v>
+      </c>
+      <c r="H74" t="s">
+        <v>59</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="E54:H54"/>
     <mergeCell ref="G20:I20"/>
     <mergeCell ref="C15:E15"/>
     <mergeCell ref="C11:E11"/>

--- a/27th May Batch/New Microsoft Excel Worksheet.xlsx
+++ b/27th May Batch/New Microsoft Excel Worksheet.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DS WorkFlow\Data Is Good Class Files\Batches\2023-Classes\27th May Batch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E00C669-D27C-47DA-A012-E73740308E43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DF14A3C-E04E-4BC1-8337-08A09FBE9F12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="64">
   <si>
     <t>harry</t>
   </si>
@@ -208,6 +209,15 @@
   </si>
   <si>
     <t>skip this loop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I </t>
+  </si>
+  <si>
+    <t>&lt;=25</t>
+  </si>
+  <si>
+    <t>loop</t>
   </si>
 </sst>
 </file>
@@ -352,7 +362,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -371,6 +381,14 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -406,17 +424,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1128,7 +1135,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:O74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView topLeftCell="A40" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="D79" sqref="D79"/>
     </sheetView>
   </sheetViews>
@@ -1248,11 +1255,11 @@
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B11" s="6"/>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B12" s="6" t="s">
@@ -1261,10 +1268,10 @@
       <c r="C12" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="14"/>
+      <c r="E12" s="18"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B13" s="6" t="s">
@@ -1273,10 +1280,10 @@
       <c r="C13" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="D13" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="16"/>
+      <c r="E13" s="20"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B14" s="6" t="s">
@@ -1285,10 +1292,10 @@
       <c r="C14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="D14" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="18"/>
+      <c r="E14" s="22"/>
       <c r="J14" t="s">
         <v>28</v>
       </c>
@@ -1298,11 +1305,11 @@
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B15" s="6"/>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="10"/>
-      <c r="E15" s="11"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="15"/>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B16" s="6" t="s">
@@ -1339,18 +1346,18 @@
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="G19" s="8" t="s">
+      <c r="G19" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="G20" s="8" t="s">
+      <c r="G20" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.35">
       <c r="G23" t="s">
@@ -1463,19 +1470,19 @@
       </c>
     </row>
     <row r="51" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="D51" s="19" t="s">
+      <c r="D51" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E51" s="19">
+      <c r="E51" s="8">
         <v>0</v>
       </c>
-      <c r="F51" s="19">
+      <c r="F51" s="8">
         <v>1</v>
       </c>
-      <c r="G51" s="19">
+      <c r="G51" s="8">
         <v>2</v>
       </c>
-      <c r="H51" s="19">
+      <c r="H51" s="8">
         <v>3</v>
       </c>
       <c r="K51" t="s">
@@ -1486,19 +1493,19 @@
       </c>
     </row>
     <row r="52" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="D52" s="19" t="s">
+      <c r="D52" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E52" s="19" t="s">
+      <c r="E52" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="F52" s="19" t="s">
+      <c r="F52" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="G52" s="19" t="s">
+      <c r="G52" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H52" s="19" t="s">
+      <c r="H52" s="8" t="s">
         <v>37</v>
       </c>
       <c r="K52" t="s">
@@ -1509,19 +1516,19 @@
       </c>
     </row>
     <row r="53" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="D53" s="19" t="s">
+      <c r="D53" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E53" s="19">
+      <c r="E53" s="8">
         <v>5</v>
       </c>
-      <c r="F53" s="19">
+      <c r="F53" s="8">
         <v>3</v>
       </c>
-      <c r="G53" s="19">
+      <c r="G53" s="8">
         <v>5</v>
       </c>
-      <c r="H53" s="19">
+      <c r="H53" s="8">
         <v>5</v>
       </c>
       <c r="K53" t="s">
@@ -1532,15 +1539,15 @@
       </c>
     </row>
     <row r="54" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="D54" s="20" t="s">
+      <c r="D54" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="E54" s="21">
+      <c r="E54" s="11">
         <v>4</v>
       </c>
-      <c r="F54" s="21"/>
-      <c r="G54" s="21"/>
-      <c r="H54" s="21"/>
+      <c r="F54" s="11"/>
+      <c r="G54" s="11"/>
+      <c r="H54" s="11"/>
     </row>
     <row r="55" spans="4:12" x14ac:dyDescent="0.35">
       <c r="J55" t="s">
@@ -1594,10 +1601,10 @@
       <c r="D64" t="s">
         <v>49</v>
       </c>
-      <c r="G64" s="22" t="s">
+      <c r="G64" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="H64" s="23" t="s">
+      <c r="H64" s="10" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1675,13 +1682,13 @@
       <c r="E70" t="s">
         <v>50</v>
       </c>
-      <c r="F70" s="22">
+      <c r="F70" s="9">
         <v>5</v>
       </c>
-      <c r="G70" s="22" t="s">
+      <c r="G70" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="H70" s="23" t="s">
+      <c r="H70" s="10" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1744,4 +1751,243 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25B732BD-6889-4527-BC46-7DB62C23B838}">
+  <dimension ref="B1:C30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B10">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B11">
+        <v>7</v>
+      </c>
+      <c r="C11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B12">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B13">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B14">
+        <v>10</v>
+      </c>
+      <c r="C14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B15">
+        <v>11</v>
+      </c>
+      <c r="C15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B16">
+        <v>12</v>
+      </c>
+      <c r="C16" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B17">
+        <v>13</v>
+      </c>
+      <c r="C17" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B18">
+        <v>14</v>
+      </c>
+      <c r="C18" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B19">
+        <v>15</v>
+      </c>
+      <c r="C19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B20">
+        <v>16</v>
+      </c>
+      <c r="C20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B21">
+        <v>17</v>
+      </c>
+      <c r="C21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B22">
+        <v>18</v>
+      </c>
+      <c r="C22" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B23">
+        <v>19</v>
+      </c>
+      <c r="C23" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B24">
+        <v>20</v>
+      </c>
+      <c r="C24" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B25">
+        <v>21</v>
+      </c>
+      <c r="C25" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B26">
+        <v>22</v>
+      </c>
+      <c r="C26" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B27">
+        <v>23</v>
+      </c>
+      <c r="C27" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B28">
+        <v>24</v>
+      </c>
+      <c r="C28" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B29">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B30">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>